--- a/t_Lenka_Baklikova_projekt_SQL_final.xlsx
+++ b/t_Lenka_Baklikova_projekt_SQL_final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\borut\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A45F139-81D9-4153-A288-B8ADBAC1A753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6323199B-16BD-4F0D-8E24-2A5B49584A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="802" activeTab="2" xr2:uid="{DB8A2025-0C39-485B-A99E-C6A7AED0C9C6}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="802" firstSheet="1" activeTab="1" xr2:uid="{DB8A2025-0C39-485B-A99E-C6A7AED0C9C6}"/>
   </bookViews>
   <sheets>
     <sheet name="overview" sheetId="16" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="341">
   <si>
     <t>countries</t>
   </si>
@@ -3613,144 +3613,6 @@
 Vybrané pouze data, které jsou v rozmezí 2.2020-6.2020</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t>Create view</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve"> Max_daily_wind</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve"> AS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve">select </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve">
-	*
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve">from </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve">Rank_daily_wind 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve">where </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t>max_wind_rank in ('1')</t>
-    </r>
-  </si>
-  <si>
-    <t>Create table weather_t_Lenka as
-SELECT 
-	city,
-	CASE WHEN city in ('Vienna') THEN 'Wien'
-		WHEN city in ('Brussels') THEN 'Bruxelles [Brussel]'
-		WHEN city in ('Brussels') THEN 'Bruxelles [Brussel]'
-		WHEN city in ('Helsinki') THEN'Helsinki [Helsingfors]'
-		WHEN city in ('Athens') THEN'Athenai'
-		WHEN city in ('Rome') THEN'Roma'
-		WHEN city in ('Luxembourg') THEN'Luxembourg [Luxemburg/L'
-		WHEN city in ('Warsaw') THEN'Warszawa'
-		WHEN city in ('Lisbon') THEN'Lisboa'
-		WHEN city in ('Bucharest') THEN'Bucuresti'
-		WHEN city in ('Kiev') THEN'Kyiv'	
-		WHEN city in ('Prague') THEN'Praha'		
-        ELSE city
-        END AS city_new,
-		convert(date,date)as date,
-		time,
-		wind,
-		RANK() OVER (PARTITION BY city, date ORDER BY wind ASC) AS max_wind_rank,
-		replace(temp,' °c','') as temp,
-		replace(rain,' mm','') as rain_mm,
-	case when time in ('06:00','09:00','12:00','15:00') then 1 else 2 end as Day_night
-from weather
-Where month(date) in (2,3,4,5,6) and year(date) in ('2020') and city is not null</t>
-  </si>
-  <si>
     <t>T_weather_Lenka</t>
   </si>
   <si>
@@ -3995,27 +3857,6 @@
   </si>
   <si>
     <t>V_Lenka_Max_daily_wind</t>
-  </si>
-  <si>
-    <t>CREATE TABLE T_Lenka_Weather_variable AS
-SELECT 
-	t.city,
-	t.date,
-	t.day_night,
-	t.AVG_daily_temp,
-	r.hours_of_rain_per_day,
-	w.wind as max_daily_wind,
-	b.city_new,
-	c.country
-from V_avagarage_daily_temp t
-LEFT JOIN V_Lenka_Rain_hours_during_day r
-ON t.city=r.city and t.date=r.date
-LEFT JOIN V_Lenka_Max_daily_wind w
-ON t.city=w.city and t.date=w.date
-LEFT JOIN T_weather_Lenka b
-ON t.city=b.city
-left join countries c 
-on b.city_new =c.capital_city</t>
   </si>
   <si>
     <t>T_Lenka_Weather_variable</t>
@@ -4538,14 +4379,6 @@
     <t>View, ve kterém jsou přiřazené hodnoty dle ročních období (0-jaro, 1-léto, 2-podzim, 3-zima)</t>
   </si>
   <si>
-    <t>select 
-	country,
-	case when WEEKDAY(cbd.date) in (5, 6) then 1 else 0 end as weekend,
-	date
-from covid19_basic_differences cbd 
-group by country, quarter, date</t>
-  </si>
-  <si>
     <t>View, ve kterém jsou přiřazené hodnoty dle dne (0-pracovní týden, 1-víkend)</t>
   </si>
   <si>
@@ -5385,7 +5218,154 @@
     <t>Finální data</t>
   </si>
   <si>
-    <t>Create table t_Lenka_Baklikova_projekt_SQL_final AS
+    <t>Finalni data</t>
+  </si>
+  <si>
+    <t>population_per_100000</t>
+  </si>
+  <si>
+    <t>ratio_confirmed_tested</t>
+  </si>
+  <si>
+    <t>Ratio_Confirmed_tested_per_population_100000</t>
+  </si>
+  <si>
+    <t>weekend</t>
+  </si>
+  <si>
+    <t>quarter</t>
+  </si>
+  <si>
+    <t>life_exp_diff</t>
+  </si>
+  <si>
+    <t>mortality_under5</t>
+  </si>
+  <si>
+    <t>Zahrnuté proměnné</t>
+  </si>
+  <si>
+    <t>Náboženství</t>
+  </si>
+  <si>
+    <t>Podíly jednotlivých náboženství</t>
+  </si>
+  <si>
+    <t>Průměrná denní (nikoli noční!) teplota</t>
+  </si>
+  <si>
+    <t>Počet hodin v daném dni, kdy byly srážky nenulové</t>
+  </si>
+  <si>
+    <t>Maximální síla větru v nárazech během dne</t>
+  </si>
+  <si>
+    <t>dětská úmrtnost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medián věku věku obyvatel v roce 2018. </t>
+  </si>
+  <si>
+    <t>hustota obyvatel</t>
+  </si>
+  <si>
+    <t>Země</t>
+  </si>
+  <si>
+    <t>Datum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Počet potvrzených případů </t>
+  </si>
+  <si>
+    <t>Počet testů</t>
+  </si>
+  <si>
+    <t>Typ testu</t>
+  </si>
+  <si>
+    <t>Populace</t>
+  </si>
+  <si>
+    <t>Populace na 100 000 obyvatel</t>
+  </si>
+  <si>
+    <t>poměr mezi provedenými testy a potvrzenými případy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poměr mezi provedenými testy a potvrzenými případy na 100 000 obyvatel </t>
+  </si>
+  <si>
+    <t>T_Lenka_tests_cases_population</t>
+  </si>
+  <si>
+    <t>T_Lenka_countries_variables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T_weather_convert </t>
+  </si>
+  <si>
+    <t>Create view V_Lenka_Max_wind AS
+select 
+	*
+from T_weather_convert
+where max_wind_rank in ('1') and city is not null</t>
+  </si>
+  <si>
+    <t>Create table T_convert_weather as
+SELECT 
+	city,
+	CASE WHEN city in ('Vienna') THEN 'Wien'
+		WHEN city in ('Brussels') THEN 'Bruxelles [Brussel]'
+		WHEN city in ('Brussels') THEN 'Bruxelles [Brussel]'
+		WHEN city in ('Helsinki') THEN'Helsinki [Helsingfors]'
+		WHEN city in ('Athens') THEN'Athenai'
+		WHEN city in ('Rome') THEN'Roma'
+		WHEN city in ('Luxembourg') THEN'Luxembourg [Luxemburg/L'
+		WHEN city in ('Warsaw') THEN'Warszawa'
+		WHEN city in ('Lisbon') THEN'Lisboa'
+		WHEN city in ('Bucharest') THEN'Bucuresti'
+		WHEN city in ('Kiev') THEN'Kyiv'	
+		WHEN city in ('Prague') THEN'Praha'		
+        ELSE city
+        END AS city_new,
+		convert(date,date)as date,
+		time,
+		wind,
+		RANK() OVER (PARTITION BY city, date ORDER BY wind DESC) AS max_wind_rank,
+		replace(temp,' °c','') as temp,
+		replace(rain,' mm','') as rain_mm,
+	case when time in ('06:00','09:00','12:00','15:00') then 1 else 2 end as Day_night
+from weather
+Where month(date) in (2,3,4,5,6) and year(date) in ('2020') and city is not null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V_Lenka_Max_wind </t>
+  </si>
+  <si>
+    <t xml:space="preserve">create table T_L_Weather_variable AS
+SELECT 
+	w.city,
+	w.date,
+	a.Avg_daily_temp,
+	r.hours_of_rain_per_day,
+	m.wind as max_wind,
+	c.country 
+from T_convert_weather w
+left join V_avagarage_daily_temp a 
+on w.city=a.city and w.date=a.date
+left join V_Lenka_Rain_hours_during_day r
+on w.city=r.city and w.date=r.date
+left join V_Lenka_Max_wind m
+on w.city=m.city and w.date=m.date
+left join countries c 
+on w.city_new =c.capital_city </t>
+  </si>
+  <si>
+    <t>T_L_Weather_variable</t>
+  </si>
+  <si>
+    <t>Create table t_Lenka_Baklikova_projekt_SQL_final as
 SELECT 
 	p.country,
 	p.date,
@@ -5408,88 +5388,358 @@
 	c.religion_share_2020,
 	w.Avg_daily_temp,
 	w.hours_of_rain_per_day,
-	w.max_daily_wind
-from T_L_tests_Cases_population p
-LEFT JOIN T_Lenka_Time_variable t
-ON p.country=t.country and p.date=t.`date`</t>
-  </si>
-  <si>
-    <t>Finalni data</t>
-  </si>
-  <si>
-    <t>population_per_100000</t>
-  </si>
-  <si>
-    <t>ratio_confirmed_tested</t>
-  </si>
-  <si>
-    <t>Ratio_Confirmed_tested_per_population_100000</t>
-  </si>
-  <si>
-    <t>weekend</t>
-  </si>
-  <si>
-    <t>quarter</t>
-  </si>
-  <si>
-    <t>life_exp_diff</t>
-  </si>
-  <si>
-    <t>mortality_under5</t>
-  </si>
-  <si>
-    <t>Zahrnuté proměnné</t>
-  </si>
-  <si>
-    <t>Náboženství</t>
-  </si>
-  <si>
-    <t>Podíly jednotlivých náboženství</t>
-  </si>
-  <si>
-    <t>Průměrná denní (nikoli noční!) teplota</t>
-  </si>
-  <si>
-    <t>Počet hodin v daném dni, kdy byly srážky nenulové</t>
-  </si>
-  <si>
-    <t>Maximální síla větru v nárazech během dne</t>
-  </si>
-  <si>
-    <t>dětská úmrtnost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medián věku věku obyvatel v roce 2018. </t>
-  </si>
-  <si>
-    <t>hustota obyvatel</t>
-  </si>
-  <si>
-    <t>Země</t>
-  </si>
-  <si>
-    <t>Datum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Počet potvrzených případů </t>
-  </si>
-  <si>
-    <t>Počet testů</t>
-  </si>
-  <si>
-    <t>Typ testu</t>
-  </si>
-  <si>
-    <t>Populace</t>
-  </si>
-  <si>
-    <t>Populace na 100 000 obyvatel</t>
-  </si>
-  <si>
-    <t>poměr mezi provedenými testy a potvrzenými případy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poměr mezi provedenými testy a potvrzenými případy na 100 000 obyvatel </t>
+	w.max_wind
+from T_Lenka_tests_cases_population p
+left join T_Lenka_Time_variable t 
+on p.country=t.country and p.date=t.date
+left join T_Lenka_countries_variables c
+on p.country=c.country
+left join T_L_Weather_variable w</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>create view Season AS select 
+	country,
+	case when WEEKDAY(cbd.date) in (5, 6) then 1 else 0 end as weekend,
+	date
+from covid19_basic_differences cbd 
+group by country, quarter, date</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="238"/>
+      </rPr>
+      <t>create view W</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">eekend </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="238"/>
+      </rPr>
+      <t>AS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">select </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">
+	country,	
+	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="238"/>
+      </rPr>
+      <t>case when</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> month(cbd.date)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> (1,2,3) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="238"/>
+      </rPr>
+      <t>then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> 1
+		</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="238"/>
+      </rPr>
+      <t>when</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> month(cbd.date) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="238"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> (4,5,6) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="238"/>
+      </rPr>
+      <t>then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> 2
+		</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="238"/>
+      </rPr>
+      <t>when</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> month(cbd.date) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="238"/>
+      </rPr>
+      <t>(7,8,9)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> 3
+		</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="238"/>
+      </rPr>
+      <t>else</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> 4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="238"/>
+      </rPr>
+      <t>end as</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> quarter,
+	date
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="238"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> covid19_basic_differences cbd 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="238"/>
+      </rPr>
+      <t>group by</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> country, quarter, date</t>
+    </r>
+  </si>
+  <si>
+    <t>T_convert_weather</t>
   </si>
 </sst>
 </file>
@@ -7133,10 +7383,10 @@
         <v>1</v>
       </c>
       <c r="H3" s="38" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="I3" s="160" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J3" s="157" t="s">
         <v>126</v>
@@ -7155,7 +7405,7 @@
         <v>2</v>
       </c>
       <c r="H4" s="26" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="I4" s="161"/>
       <c r="J4" s="158"/>
@@ -7173,7 +7423,7 @@
         <v>103</v>
       </c>
       <c r="H5" s="41" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="I5" s="162"/>
       <c r="J5" s="158"/>
@@ -7195,10 +7445,10 @@
         <v>104</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="I6" s="156" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="J6" s="158"/>
     </row>
@@ -7215,7 +7465,7 @@
         <v>104</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="I7" s="156"/>
       <c r="J7" s="158"/>
@@ -7235,10 +7485,10 @@
         <v>73</v>
       </c>
       <c r="H8" s="130" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="I8" s="156" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="J8" s="158"/>
     </row>
@@ -7255,7 +7505,7 @@
         <v>73</v>
       </c>
       <c r="H9" s="130" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="I9" s="156"/>
       <c r="J9" s="158"/>
@@ -7273,7 +7523,7 @@
         <v>3</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I10" s="156"/>
       <c r="J10" s="158"/>
@@ -7291,7 +7541,7 @@
         <v>103</v>
       </c>
       <c r="H11" s="129" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I11" s="156"/>
       <c r="J11" s="158"/>
@@ -7309,7 +7559,7 @@
         <v>103</v>
       </c>
       <c r="H12" s="129" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I12" s="156"/>
       <c r="J12" s="158"/>
@@ -7327,7 +7577,7 @@
         <v>103</v>
       </c>
       <c r="H13" s="129" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I13" s="156"/>
       <c r="J13" s="158"/>
@@ -7345,7 +7595,7 @@
         <v>5</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I14" s="156"/>
       <c r="J14" s="158"/>
@@ -7365,10 +7615,10 @@
         <v>109</v>
       </c>
       <c r="H15" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="I15" s="156" t="s">
         <v>192</v>
-      </c>
-      <c r="I15" s="156" t="s">
-        <v>195</v>
       </c>
       <c r="J15" s="158"/>
     </row>
@@ -7385,7 +7635,7 @@
         <v>109</v>
       </c>
       <c r="H16" s="34" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I16" s="156"/>
       <c r="J16" s="158"/>
@@ -7403,7 +7653,7 @@
         <v>109</v>
       </c>
       <c r="H17" s="44" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I17" s="163"/>
       <c r="J17" s="159"/>
@@ -7472,19 +7722,19 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="99" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D6" s="100" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E6" s="100" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7492,10 +7742,10 @@
         <v>171</v>
       </c>
       <c r="D7" s="102" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E7" s="102" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7503,10 +7753,10 @@
         <v>172</v>
       </c>
       <c r="D8" s="104" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E8" s="104" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7514,10 +7764,10 @@
         <v>174</v>
       </c>
       <c r="D9" s="102" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E9" s="102" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7525,10 +7775,10 @@
         <v>175</v>
       </c>
       <c r="D10" s="104" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E10" s="104" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7536,10 +7786,10 @@
         <v>176</v>
       </c>
       <c r="D11" s="102" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E11" s="102" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7547,7 +7797,7 @@
         <v>178</v>
       </c>
       <c r="D12" s="104" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E12" s="104" t="s">
         <v>178</v>
@@ -7558,10 +7808,10 @@
         <v>179</v>
       </c>
       <c r="D13" s="102" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E13" s="102" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7569,10 +7819,10 @@
         <v>180</v>
       </c>
       <c r="D14" s="104" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E14" s="104" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7580,10 +7830,10 @@
         <v>181</v>
       </c>
       <c r="D15" s="102" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E15" s="102" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7591,21 +7841,21 @@
         <v>182</v>
       </c>
       <c r="D16" s="104" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E16" s="104" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="101" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D17" s="102" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E17" s="102" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
@@ -7613,62 +7863,62 @@
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C25" s="111" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C27" s="99" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D27" s="100" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E27" s="100" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C28" s="101" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D28" s="112" t="e">
         <v>#N/A</v>
       </c>
       <c r="E28" s="112" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C29" s="103" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D29" s="113" t="e">
         <v>#N/A</v>
       </c>
       <c r="E29" s="113" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C30" s="101" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D30" s="112" t="e">
         <v>#N/A</v>
       </c>
       <c r="E30" s="112" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C31" s="103" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D31" s="113" t="e">
         <v>#N/A</v>
@@ -7679,62 +7929,62 @@
     </row>
     <row r="32" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C32" s="101" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D32" s="112" t="e">
         <v>#N/A</v>
       </c>
       <c r="E32" s="112" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="33" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C33" s="103" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D33" s="113" t="e">
         <v>#N/A</v>
       </c>
       <c r="E33" s="113" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="34" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C34" s="101" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D34" s="112" t="e">
         <v>#N/A</v>
       </c>
       <c r="E34" s="112" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="35" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C35" s="103" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D35" s="113" t="e">
         <v>#N/A</v>
       </c>
       <c r="E35" s="113" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="36" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C36" s="101" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D36" s="112" t="e">
         <v>#N/A</v>
       </c>
       <c r="E36" s="112" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="37" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C37" s="103" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D37" s="113" t="e">
         <v>#N/A</v>
@@ -7745,62 +7995,62 @@
     </row>
     <row r="38" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C38" s="101" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D38" s="112" t="e">
         <v>#N/A</v>
       </c>
       <c r="E38" s="115" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="40" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C40" s="116" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="43" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C43" s="117" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="45" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C46" s="99" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D46" s="100" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E46" s="100" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="47" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C47" s="101" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D47" s="115" t="e">
         <v>#N/A</v>
       </c>
       <c r="E47" s="118" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="48" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C48" s="103" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D48" s="114" t="e">
         <v>#N/A</v>
       </c>
       <c r="E48" s="119" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="49" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C49" s="101" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D49" s="115" t="e">
         <v>#N/A</v>
@@ -7811,7 +8061,7 @@
     </row>
     <row r="50" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C50" s="103" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D50" s="114" t="e">
         <v>#N/A</v>
@@ -7822,7 +8072,7 @@
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="55" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -7830,7 +8080,7 @@
         <v>3</v>
       </c>
       <c r="C55" s="120" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="56" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -7838,12 +8088,12 @@
     </row>
     <row r="57" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C57" s="121" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C58" s="122" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="59" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -7851,17 +8101,17 @@
     </row>
     <row r="60" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C60" s="122" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="61" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C61" s="122" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="62" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C62" s="122" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -8604,8 +8854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C5E2862-6BF0-4C16-8245-876DA61B455B}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9012,8 +9262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{860A4E3B-8318-467C-8152-4DAED572D6B1}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C8:C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9021,7 +9271,7 @@
     <col min="1" max="1" width="37.85546875" style="23" customWidth="1"/>
     <col min="2" max="2" width="38.140625" style="23" customWidth="1"/>
     <col min="3" max="3" width="40.5703125" style="23" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" style="23" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" style="23" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="1"/>
     <col min="6" max="6" width="9.140625" style="14"/>
     <col min="12" max="12" width="9.140625" style="14"/>
@@ -9033,7 +9283,7 @@
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="H1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -9044,7 +9294,7 @@
         <v>113</v>
       </c>
       <c r="C2" s="145" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D2" s="91"/>
     </row>
@@ -9053,14 +9303,14 @@
         <v>114</v>
       </c>
       <c r="B3" s="123" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C3" s="123" t="s">
         <v>126</v>
       </c>
       <c r="D3" s="72"/>
       <c r="G3" s="170" t="s">
-        <v>306</v>
+        <v>336</v>
       </c>
       <c r="H3" s="170"/>
       <c r="I3" s="170"/>
@@ -9079,9 +9329,9 @@
         <v>92</v>
       </c>
       <c r="C4" s="97" t="s">
-        <v>297</v>
-      </c>
-      <c r="D4"/>
+        <v>328</v>
+      </c>
+      <c r="D4" s="14"/>
       <c r="E4"/>
       <c r="G4" s="170"/>
       <c r="H4" s="170"/>
@@ -9097,15 +9347,15 @@
     </row>
     <row r="5" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="144" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B5" s="146" t="s">
         <v>165</v>
       </c>
       <c r="C5" s="146" t="s">
-        <v>205</v>
-      </c>
-      <c r="D5"/>
+        <v>202</v>
+      </c>
+      <c r="D5" s="14"/>
       <c r="E5"/>
       <c r="G5" s="170"/>
       <c r="H5" s="170"/>
@@ -9121,13 +9371,13 @@
     </row>
     <row r="6" spans="1:17" s="58" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="144" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B6" s="146" t="s">
         <v>161</v>
       </c>
       <c r="C6" s="147" t="s">
-        <v>204</v>
+        <v>329</v>
       </c>
       <c r="D6" s="57"/>
       <c r="E6" s="69"/>
@@ -9143,13 +9393,13 @@
     </row>
     <row r="7" spans="1:17" s="58" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="144" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B7" s="146" t="s">
         <v>166</v>
       </c>
       <c r="C7" s="146" t="s">
-        <v>195</v>
+        <v>335</v>
       </c>
       <c r="D7" s="69"/>
       <c r="E7" s="69"/>
@@ -9303,7 +9553,9 @@
       <c r="A17" s="92"/>
       <c r="B17" s="57"/>
       <c r="C17" s="57"/>
-      <c r="D17" s="92"/>
+      <c r="D17" s="92" t="s">
+        <v>337</v>
+      </c>
       <c r="Q17" s="14"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
@@ -9414,7 +9666,7 @@
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1" s="124" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C1" s="124"/>
     </row>
@@ -9423,7 +9675,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="148" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
@@ -9431,7 +9683,7 @@
         <v>45</v>
       </c>
       <c r="C3" s="148" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
@@ -9439,7 +9691,7 @@
         <v>46</v>
       </c>
       <c r="C4" s="148" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
@@ -9447,7 +9699,7 @@
         <v>49</v>
       </c>
       <c r="C5" s="148" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
@@ -9455,7 +9707,7 @@
         <v>52</v>
       </c>
       <c r="C6" s="148" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
@@ -9463,36 +9715,36 @@
         <v>29</v>
       </c>
       <c r="C7" s="148" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="148" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C8" s="148" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="148" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C9" s="148" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="148" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C10" s="148" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="148" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C11" s="148" t="s">
         <v>96</v>
@@ -9500,7 +9752,7 @@
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="148" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C12" s="148" t="s">
         <v>97</v>
@@ -9511,7 +9763,7 @@
         <v>28</v>
       </c>
       <c r="C13" s="148" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
@@ -9519,12 +9771,12 @@
         <v>33</v>
       </c>
       <c r="C14" s="148" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="148" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C15" s="148" t="s">
         <v>80</v>
@@ -9548,10 +9800,10 @@
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="148" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C18" s="148" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
@@ -9559,7 +9811,7 @@
         <v>14</v>
       </c>
       <c r="C19" s="148" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
@@ -9567,7 +9819,7 @@
         <v>106</v>
       </c>
       <c r="C20" s="148" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
@@ -9575,7 +9827,7 @@
         <v>108</v>
       </c>
       <c r="C21" s="148" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
@@ -9583,7 +9835,7 @@
         <v>87</v>
       </c>
       <c r="C22" s="148" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
@@ -9591,7 +9843,7 @@
         <v>110</v>
       </c>
       <c r="C23" s="148" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -9604,16 +9856,16 @@
   <dimension ref="B2:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:F3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" customWidth="1"/>
-    <col min="4" max="4" width="82.85546875" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" customWidth="1"/>
-    <col min="6" max="6" width="53" customWidth="1"/>
+    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="81.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="30" x14ac:dyDescent="0.25">
@@ -9636,78 +9888,78 @@
         <v>153</v>
       </c>
       <c r="E3" s="124" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F3" s="124" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="255" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="125" t="s">
-        <v>302</v>
-      </c>
-      <c r="C4" s="125" t="s">
-        <v>297</v>
+        <v>298</v>
+      </c>
+      <c r="C4" s="97" t="s">
+        <v>328</v>
       </c>
       <c r="D4" s="126" t="s">
+        <v>292</v>
+      </c>
+      <c r="E4" s="126" t="s">
         <v>296</v>
-      </c>
-      <c r="E4" s="126" t="s">
-        <v>300</v>
       </c>
       <c r="F4" s="126" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="106" t="s">
         <v>89</v>
       </c>
       <c r="C5" s="109" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D5" s="128" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E5" s="128" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="127" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="200.25" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="106" t="s">
         <v>90</v>
       </c>
       <c r="C6" s="107" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D6" s="107" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E6" s="128" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F6" s="127" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="171.75" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="106" t="s">
         <v>91</v>
       </c>
       <c r="C7" s="107" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D7" s="107" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E7" s="128" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F7" s="127" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
@@ -9716,7 +9968,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
@@ -9734,7 +9986,7 @@
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
       <c r="D12" s="111" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
@@ -9752,13 +10004,13 @@
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
       <c r="D14" s="99" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E14" s="100" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F14" s="100" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="G14" s="14"/>
     </row>
@@ -9766,13 +10018,13 @@
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
       <c r="D15" s="101" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E15" s="112" t="e">
         <v>#N/A</v>
       </c>
       <c r="F15" s="112" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G15" s="14"/>
     </row>
@@ -9780,13 +10032,13 @@
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
       <c r="D16" s="103" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E16" s="113" t="e">
         <v>#N/A</v>
       </c>
       <c r="F16" s="113" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G16" s="14"/>
     </row>
@@ -9794,13 +10046,13 @@
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
       <c r="D17" s="101" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E17" s="112" t="e">
         <v>#N/A</v>
       </c>
       <c r="F17" s="112" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G17" s="14"/>
     </row>
@@ -9808,7 +10060,7 @@
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
       <c r="D18" s="103" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E18" s="113" t="e">
         <v>#N/A</v>
@@ -9822,13 +10074,13 @@
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
       <c r="D19" s="101" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E19" s="112" t="e">
         <v>#N/A</v>
       </c>
       <c r="F19" s="112" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G19" s="14"/>
     </row>
@@ -9836,13 +10088,13 @@
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
       <c r="D20" s="103" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E20" s="113" t="e">
         <v>#N/A</v>
       </c>
       <c r="F20" s="113" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G20" s="14"/>
     </row>
@@ -9850,13 +10102,13 @@
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
       <c r="D21" s="101" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E21" s="112" t="e">
         <v>#N/A</v>
       </c>
       <c r="F21" s="112" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G21" s="14"/>
     </row>
@@ -9864,13 +10116,13 @@
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="103" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E22" s="113" t="e">
         <v>#N/A</v>
       </c>
       <c r="F22" s="113" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G22" s="14"/>
     </row>
@@ -9878,13 +10130,13 @@
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="101" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E23" s="112" t="e">
         <v>#N/A</v>
       </c>
       <c r="F23" s="112" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G23" s="14"/>
     </row>
@@ -9892,7 +10144,7 @@
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
       <c r="D24" s="103" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E24" s="113" t="e">
         <v>#N/A</v>
@@ -9906,13 +10158,13 @@
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
       <c r="D25" s="101" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E25" s="112" t="e">
         <v>#N/A</v>
       </c>
       <c r="F25" s="115" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G25" s="14"/>
     </row>
@@ -9928,7 +10180,7 @@
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
       <c r="D27" s="116" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
@@ -9954,7 +10206,7 @@
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
       <c r="D30" s="117" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
@@ -9980,13 +10232,13 @@
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
       <c r="D33" s="99" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E33" s="100" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F33" s="100" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G33" s="14"/>
     </row>
@@ -9994,13 +10246,13 @@
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
       <c r="D34" s="101" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E34" s="115" t="e">
         <v>#N/A</v>
       </c>
       <c r="F34" s="118" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G34" s="14"/>
     </row>
@@ -10008,13 +10260,13 @@
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
       <c r="D35" s="103" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E35" s="114" t="e">
         <v>#N/A</v>
       </c>
       <c r="F35" s="119" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G35" s="14"/>
     </row>
@@ -10022,7 +10274,7 @@
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
       <c r="D36" s="101" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E36" s="115" t="e">
         <v>#N/A</v>
@@ -10036,7 +10288,7 @@
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
       <c r="D37" s="103" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E37" s="114" t="e">
         <v>#N/A</v>
@@ -10058,7 +10310,7 @@
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
       <c r="D39" s="14" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
@@ -10082,7 +10334,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B2" sqref="B2:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10111,7 +10363,7 @@
         <v>153</v>
       </c>
       <c r="E2" s="133" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F2" s="133" t="s">
         <v>184</v>
@@ -10122,16 +10374,16 @@
         <v>161</v>
       </c>
       <c r="C3" s="137" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D3" s="137" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E3" s="137" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F3" s="105" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10139,16 +10391,16 @@
         <v>155</v>
       </c>
       <c r="C4" s="108" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D4" s="110" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E4" s="110" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="132" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10156,16 +10408,16 @@
         <v>80</v>
       </c>
       <c r="C5" s="109" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D5" s="110" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E5" s="110" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="132" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10173,16 +10425,16 @@
         <v>158</v>
       </c>
       <c r="C6" s="109" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D6" s="110" t="s">
         <v>157</v>
       </c>
       <c r="E6" s="110" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F6" s="132" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10190,16 +10442,16 @@
         <v>79</v>
       </c>
       <c r="C7" s="108" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D7" s="110" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E7" s="110" t="s">
         <v>5</v>
       </c>
       <c r="F7" s="132" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
@@ -10230,7 +10482,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B2" sqref="B2:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10259,7 +10511,7 @@
         <v>153</v>
       </c>
       <c r="E2" s="133" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F2" s="133" t="s">
         <v>184</v>
@@ -10270,33 +10522,33 @@
         <v>99</v>
       </c>
       <c r="C3" s="134" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D3" s="135" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E3" s="135" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F3" s="105" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="108" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C4" s="108" t="s">
         <v>86</v>
       </c>
       <c r="D4" s="136" t="s">
-        <v>245</v>
+        <v>338</v>
       </c>
       <c r="E4" s="136" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F4" s="132" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10307,13 +10559,13 @@
         <v>98</v>
       </c>
       <c r="D5" s="109" t="s">
-        <v>135</v>
+        <v>339</v>
       </c>
       <c r="E5" s="109" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F5" s="132" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -10326,7 +10578,7 @@
   <dimension ref="B2:O27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10349,7 +10601,7 @@
         <v>153</v>
       </c>
       <c r="E2" s="131" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F2" s="131" t="s">
         <v>184</v>
@@ -10360,33 +10612,33 @@
         <v>163</v>
       </c>
       <c r="C3" s="134" t="s">
-        <v>195</v>
+        <v>335</v>
       </c>
       <c r="D3" s="134" t="s">
-        <v>194</v>
+        <v>334</v>
       </c>
       <c r="E3" s="134" t="s">
         <v>109</v>
       </c>
       <c r="F3" s="105" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="2:15" ht="163.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="138" t="s">
-        <v>209</v>
-      </c>
-      <c r="C4" s="138" t="s">
-        <v>189</v>
+        <v>206</v>
+      </c>
+      <c r="C4" s="141" t="s">
+        <v>340</v>
       </c>
       <c r="D4" s="138" t="s">
-        <v>188</v>
+        <v>332</v>
       </c>
       <c r="E4" s="138" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="138" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10394,16 +10646,16 @@
         <v>81</v>
       </c>
       <c r="C5" s="109" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D5" s="139" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E5" s="138" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F5" s="140" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10411,16 +10663,16 @@
         <v>82</v>
       </c>
       <c r="C6" s="109" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D6" s="139" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E6" s="138" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F6" s="132" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10428,16 +10680,16 @@
         <v>83</v>
       </c>
       <c r="C7" s="109" t="s">
-        <v>193</v>
+        <v>333</v>
       </c>
       <c r="D7" s="139" t="s">
+        <v>331</v>
+      </c>
+      <c r="E7" s="138" t="s">
         <v>187</v>
       </c>
-      <c r="E7" s="138" t="s">
-        <v>189</v>
-      </c>
       <c r="F7" s="132" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
@@ -10450,7 +10702,9 @@
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="141"/>
       <c r="C9" s="141"/>
-      <c r="D9" s="141"/>
+      <c r="D9" s="141" t="s">
+        <v>330</v>
+      </c>
       <c r="E9" s="141"/>
       <c r="F9" s="141"/>
     </row>
@@ -10459,7 +10713,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="142" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D10" s="142"/>
       <c r="E10" s="142"/>
@@ -10509,13 +10763,13 @@
     <row r="13" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="142"/>
       <c r="C13" s="99" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D13" s="100" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E13" s="100" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F13" s="142"/>
       <c r="G13" s="14"/>
@@ -10534,10 +10788,10 @@
         <v>171</v>
       </c>
       <c r="D14" s="102" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E14" s="102" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F14" s="142"/>
       <c r="G14" s="14"/>
@@ -10556,10 +10810,10 @@
         <v>172</v>
       </c>
       <c r="D15" s="104" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E15" s="104" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F15" s="142"/>
       <c r="G15" s="14"/>
@@ -10578,10 +10832,10 @@
         <v>174</v>
       </c>
       <c r="D16" s="102" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E16" s="102" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F16" s="142"/>
       <c r="G16" s="14"/>
@@ -10600,10 +10854,10 @@
         <v>175</v>
       </c>
       <c r="D17" s="104" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E17" s="104" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F17" s="142"/>
       <c r="G17" s="14"/>
@@ -10622,10 +10876,10 @@
         <v>176</v>
       </c>
       <c r="D18" s="102" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E18" s="102" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F18" s="142"/>
       <c r="G18" s="14"/>
@@ -10644,7 +10898,7 @@
         <v>178</v>
       </c>
       <c r="D19" s="104" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E19" s="104" t="s">
         <v>178</v>
@@ -10666,10 +10920,10 @@
         <v>179</v>
       </c>
       <c r="D20" s="102" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E20" s="102" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F20" s="142"/>
       <c r="G20" s="14"/>
@@ -10688,10 +10942,10 @@
         <v>180</v>
       </c>
       <c r="D21" s="104" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E21" s="104" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F21" s="142"/>
       <c r="G21" s="14"/>
@@ -10710,10 +10964,10 @@
         <v>181</v>
       </c>
       <c r="D22" s="102" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E22" s="102" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F22" s="142"/>
       <c r="G22" s="14"/>
@@ -10732,10 +10986,10 @@
         <v>182</v>
       </c>
       <c r="D23" s="104" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E23" s="104" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F23" s="142"/>
       <c r="G23" s="14"/>
@@ -10751,13 +11005,13 @@
     <row r="24" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="142"/>
       <c r="C24" s="101" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D24" s="102" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E24" s="102" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F24" s="142"/>
       <c r="G24" s="14"/>
